--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link3_request1600.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link3_request1600.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3390"/>
+  <dimension ref="A1:C3388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.144</v>
+        <v>20.144</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.0712</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0616</v>
+        <v>0.0624</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0624</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.032</v>
+        <v>0.0312</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0208</v>
+        <v>0.0216</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0176</v>
+        <v>0.0168</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.472</v>
+        <v>5.4728</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3592</v>
+        <v>0.3576</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.024</v>
+        <v>0.0248</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06080000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0168</v>
+        <v>0.0176</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03680000000000001</v>
+        <v>0.036</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03920000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0352</v>
+        <v>0.0344</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0144</v>
+        <v>0.0152</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03920000000000001</v>
+        <v>0.0384</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.204</v>
+        <v>0.2048</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.4304</v>
+        <v>1.4296</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8456</v>
+        <v>0.8464</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3648</v>
+        <v>0.3656</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2512</v>
+        <v>0.2504</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3488</v>
+        <v>0.3496</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1176,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4312</v>
+        <v>0.4304000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1424</v>
+        <v>0.1432</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3632</v>
+        <v>0.3624000000000001</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.144</v>
+        <v>0.1448</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2128</v>
+        <v>0.212</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.236</v>
+        <v>0.2368</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.404</v>
+        <v>0.4032000000000001</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.8912</v>
+        <v>2.8904</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1682,7 +1682,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3432000000000001</v>
+        <v>0.344</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9224000000000001</v>
+        <v>0.9216</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4512</v>
+        <v>0.452</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3288</v>
+        <v>0.328</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4128</v>
+        <v>0.4136</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1748,7 +1748,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.4456</v>
+        <v>1.4448</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.392</v>
+        <v>0.3928</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2472</v>
+        <v>0.2464</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1803,7 +1803,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3888</v>
+        <v>0.3896</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>0.0176</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="195">
@@ -2576,7 +2576,7 @@
         <v>0.312</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="196">
@@ -2587,7 +2587,7 @@
         <v>0.2808</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="197">
@@ -2598,7 +2598,7 @@
         <v>0.372</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="198">
@@ -2609,7 +2609,7 @@
         <v>0.096</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="199">
@@ -2620,7 +2620,7 @@
         <v>0.0384</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="200">
@@ -2631,7 +2631,7 @@
         <v>0.2744</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="201">
@@ -2642,7 +2642,7 @@
         <v>0.3488</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="202">
@@ -2653,7 +2653,7 @@
         <v>0.652</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="203">
@@ -2664,7 +2664,7 @@
         <v>0.4</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="204">
@@ -2675,7 +2675,7 @@
         <v>0.368</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="205">
@@ -2686,7 +2686,7 @@
         <v>0.24</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="206">
@@ -2697,7 +2697,7 @@
         <v>0.8832000000000001</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="207">
@@ -2708,7 +2708,7 @@
         <v>0.4176</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="208">
@@ -2719,7 +2719,7 @@
         <v>0.3888</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="209">
@@ -2738,7 +2738,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8976000000000001</v>
+        <v>0.8984000000000001</v>
       </c>
       <c r="C210" t="n">
         <v>312501</v>
@@ -2749,7 +2749,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.18</v>
+        <v>0.1792</v>
       </c>
       <c r="C211" t="n">
         <v>312501</v>
@@ -2760,7 +2760,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.7864000000000001</v>
+        <v>0.7872</v>
       </c>
       <c r="C212" t="n">
         <v>312501</v>
@@ -2771,7 +2771,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3504</v>
+        <v>0.3496</v>
       </c>
       <c r="C213" t="n">
         <v>312501</v>
@@ -2782,7 +2782,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.416</v>
+        <v>0.4168</v>
       </c>
       <c r="C214" t="n">
         <v>312501</v>
@@ -2793,7 +2793,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.4688</v>
+        <v>0.468</v>
       </c>
       <c r="C215" t="n">
         <v>312501</v>
@@ -2815,7 +2815,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.2032</v>
+        <v>0.204</v>
       </c>
       <c r="C217" t="n">
         <v>312501</v>
@@ -2826,7 +2826,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.008</v>
+        <v>0.0072</v>
       </c>
       <c r="C218" t="n">
         <v>312501</v>
@@ -2837,7 +2837,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0168</v>
+        <v>0.0176</v>
       </c>
       <c r="C219" t="n">
         <v>312501</v>
@@ -2848,7 +2848,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1328</v>
+        <v>0.132</v>
       </c>
       <c r="C220" t="n">
         <v>312501</v>
@@ -3684,7 +3684,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.009600000000000001</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="C296" t="n">
         <v>312501</v>
@@ -3695,7 +3695,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.436</v>
+        <v>0.4368</v>
       </c>
       <c r="C297" t="n">
         <v>312501</v>
@@ -4127,7 +4127,7 @@
         <v>0.476</v>
       </c>
       <c r="C336" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="337">
@@ -4138,7 +4138,7 @@
         <v>0.4</v>
       </c>
       <c r="C337" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="338">
@@ -4149,7 +4149,7 @@
         <v>0.892</v>
       </c>
       <c r="C338" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="339">
@@ -4160,7 +4160,7 @@
         <v>0.4</v>
       </c>
       <c r="C339" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="340">
@@ -4171,7 +4171,7 @@
         <v>0.86</v>
       </c>
       <c r="C340" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="341">
@@ -4182,7 +4182,7 @@
         <v>0.624</v>
       </c>
       <c r="C341" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="342">
@@ -5370,7 +5370,7 @@
         <v>0.664</v>
       </c>
       <c r="C449" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="450">
@@ -5381,7 +5381,7 @@
         <v>0.752</v>
       </c>
       <c r="C450" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="451">
@@ -5392,7 +5392,7 @@
         <v>0.396</v>
       </c>
       <c r="C451" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="452">
@@ -5403,7 +5403,7 @@
         <v>0.276</v>
       </c>
       <c r="C452" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="453">
@@ -6514,7 +6514,7 @@
         <v>0.436</v>
       </c>
       <c r="C553" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="554">
@@ -6525,7 +6525,7 @@
         <v>0.192</v>
       </c>
       <c r="C554" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="555">
@@ -6536,7 +6536,7 @@
         <v>5.736</v>
       </c>
       <c r="C555" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="556">
@@ -6547,7 +6547,7 @@
         <v>0.604</v>
       </c>
       <c r="C556" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="557">
@@ -6558,7 +6558,7 @@
         <v>1.796</v>
       </c>
       <c r="C557" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="558">
@@ -6907,7 +6907,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>0.1272</v>
+        <v>0.128</v>
       </c>
       <c r="C589" t="n">
         <v>1250001</v>
@@ -6918,7 +6918,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>1.3576</v>
+        <v>1.3568</v>
       </c>
       <c r="C590" t="n">
         <v>1250001</v>
@@ -6962,7 +6962,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>0.0232</v>
+        <v>0.024</v>
       </c>
       <c r="C594" t="n">
         <v>1250001</v>
@@ -6973,7 +6973,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>0.2024</v>
+        <v>0.2016</v>
       </c>
       <c r="C595" t="n">
         <v>1250001</v>
@@ -7006,7 +7006,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1048</v>
+        <v>0.1056</v>
       </c>
       <c r="C598" t="n">
         <v>1250001</v>
@@ -7039,7 +7039,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>0.2064</v>
+        <v>0.2056</v>
       </c>
       <c r="C601" t="n">
         <v>1250001</v>
@@ -7050,7 +7050,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>0.136</v>
+        <v>0.1368</v>
       </c>
       <c r="C602" t="n">
         <v>1250001</v>
@@ -7061,7 +7061,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.07840000000000001</v>
       </c>
       <c r="C603" t="n">
         <v>1250001</v>
@@ -7116,7 +7116,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>0.264</v>
+        <v>0.2648</v>
       </c>
       <c r="C608" t="n">
         <v>1250001</v>
@@ -7138,7 +7138,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>0.2264</v>
+        <v>0.2256</v>
       </c>
       <c r="C610" t="n">
         <v>1250001</v>
@@ -8406,7 +8406,7 @@
         <v>0.1864</v>
       </c>
       <c r="C725" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="726">
@@ -8417,7 +8417,7 @@
         <v>1.9112</v>
       </c>
       <c r="C726" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="727">
@@ -8428,7 +8428,7 @@
         <v>1.2</v>
       </c>
       <c r="C727" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="728">
@@ -8439,7 +8439,7 @@
         <v>0.852</v>
       </c>
       <c r="C728" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="729">
@@ -8450,7 +8450,7 @@
         <v>0.08</v>
       </c>
       <c r="C729" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="730">
@@ -8461,7 +8461,7 @@
         <v>0.6936</v>
       </c>
       <c r="C730" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="731">
@@ -8472,7 +8472,7 @@
         <v>2.4464</v>
       </c>
       <c r="C731" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="732">
@@ -8483,7 +8483,7 @@
         <v>1.4272</v>
       </c>
       <c r="C732" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="733">
@@ -8494,7 +8494,7 @@
         <v>1.3184</v>
       </c>
       <c r="C733" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="734">
@@ -9550,7 +9550,7 @@
         <v>11.9504</v>
       </c>
       <c r="C829" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="830">
@@ -9561,7 +9561,7 @@
         <v>0.3832</v>
       </c>
       <c r="C830" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="831">
@@ -9572,7 +9572,7 @@
         <v>1.0448</v>
       </c>
       <c r="C831" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="832">
@@ -9583,7 +9583,7 @@
         <v>0.476</v>
       </c>
       <c r="C832" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="833">
@@ -9594,7 +9594,7 @@
         <v>1.4104</v>
       </c>
       <c r="C833" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="834">
@@ -10086,7 +10086,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>0.908</v>
+        <v>0.9072</v>
       </c>
       <c r="C878" t="n">
         <v>1875001</v>
@@ -10097,7 +10097,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>3.9352</v>
+        <v>3.936</v>
       </c>
       <c r="C879" t="n">
         <v>1875001</v>
@@ -10119,7 +10119,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>3.392</v>
+        <v>3.3912</v>
       </c>
       <c r="C881" t="n">
         <v>1875001</v>
@@ -10130,7 +10130,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>1.7712</v>
+        <v>1.772</v>
       </c>
       <c r="C882" t="n">
         <v>1875001</v>
@@ -10243,7 +10243,7 @@
         <v>8.9152</v>
       </c>
       <c r="C892" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="893">
@@ -10254,7 +10254,7 @@
         <v>3.9336</v>
       </c>
       <c r="C893" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="894">
@@ -10265,7 +10265,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C894" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="895">
@@ -10680,7 +10680,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>10.8336</v>
+        <v>6.7952</v>
       </c>
       <c r="C932" t="n">
         <v>2187501</v>
@@ -10691,7 +10691,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>0.3928</v>
+        <v>3.9632</v>
       </c>
       <c r="C933" t="n">
         <v>2187501</v>
@@ -10702,7 +10702,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>3.592</v>
+        <v>0.3928</v>
       </c>
       <c r="C934" t="n">
         <v>2187501</v>
@@ -10713,7 +10713,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>2.8984</v>
+        <v>3.592</v>
       </c>
       <c r="C935" t="n">
         <v>2187501</v>
@@ -10724,7 +10724,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>0.9152</v>
+        <v>2.8984</v>
       </c>
       <c r="C936" t="n">
         <v>2187501</v>
@@ -10735,7 +10735,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>2.8672</v>
+        <v>0.9152</v>
       </c>
       <c r="C937" t="n">
         <v>2187501</v>
@@ -10746,7 +10746,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>22.9184</v>
+        <v>25.8608</v>
       </c>
       <c r="C938" t="n">
         <v>2187501</v>
@@ -11747,7 +11747,7 @@
         <v>1027</v>
       </c>
       <c r="B1029" t="n">
-        <v>0.3984</v>
+        <v>0.3992000000000001</v>
       </c>
       <c r="C1029" t="n">
         <v>2500001</v>
@@ -11758,7 +11758,7 @@
         <v>1028</v>
       </c>
       <c r="B1030" t="n">
-        <v>0.4176</v>
+        <v>0.4168</v>
       </c>
       <c r="C1030" t="n">
         <v>2500001</v>
@@ -11780,7 +11780,7 @@
         <v>1030</v>
       </c>
       <c r="B1032" t="n">
-        <v>0.472</v>
+        <v>0.4728</v>
       </c>
       <c r="C1032" t="n">
         <v>2500001</v>
@@ -11791,7 +11791,7 @@
         <v>1031</v>
       </c>
       <c r="B1033" t="n">
-        <v>0.3008</v>
+        <v>0.3</v>
       </c>
       <c r="C1033" t="n">
         <v>2500001</v>
@@ -11802,7 +11802,7 @@
         <v>1032</v>
       </c>
       <c r="B1034" t="n">
-        <v>0.9384000000000001</v>
+        <v>0.9392</v>
       </c>
       <c r="C1034" t="n">
         <v>2500001</v>
@@ -11813,7 +11813,7 @@
         <v>1033</v>
       </c>
       <c r="B1035" t="n">
-        <v>0.8816000000000001</v>
+        <v>0.8808</v>
       </c>
       <c r="C1035" t="n">
         <v>2500001</v>
@@ -11835,7 +11835,7 @@
         <v>1035</v>
       </c>
       <c r="B1037" t="n">
-        <v>1.4176</v>
+        <v>1.4184</v>
       </c>
       <c r="C1037" t="n">
         <v>2500001</v>
@@ -11846,7 +11846,7 @@
         <v>1036</v>
       </c>
       <c r="B1038" t="n">
-        <v>1.9376</v>
+        <v>1.9368</v>
       </c>
       <c r="C1038" t="n">
         <v>2500001</v>
@@ -12344,7 +12344,7 @@
         <v>0.7976</v>
       </c>
       <c r="C1083" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1084">
@@ -12355,7 +12355,7 @@
         <v>3.9504</v>
       </c>
       <c r="C1084" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1085">
@@ -12366,7 +12366,7 @@
         <v>1.2544</v>
       </c>
       <c r="C1085" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1086">
@@ -12377,7 +12377,7 @@
         <v>1.368</v>
       </c>
       <c r="C1086" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1087">
@@ -12388,7 +12388,7 @@
         <v>0.6936</v>
       </c>
       <c r="C1087" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1088">
@@ -12399,7 +12399,7 @@
         <v>2.4472</v>
       </c>
       <c r="C1088" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1089">
@@ -12410,7 +12410,7 @@
         <v>1.4264</v>
       </c>
       <c r="C1089" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1090">
@@ -12421,7 +12421,7 @@
         <v>3.1736</v>
       </c>
       <c r="C1090" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1091">
@@ -13158,7 +13158,7 @@
         <v>11.9488</v>
       </c>
       <c r="C1157" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1158">
@@ -13169,7 +13169,7 @@
         <v>0.384</v>
       </c>
       <c r="C1158" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1159">
@@ -13180,7 +13180,7 @@
         <v>2.416</v>
       </c>
       <c r="C1159" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1160">
@@ -13191,7 +13191,7 @@
         <v>1.4104</v>
       </c>
       <c r="C1160" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1161">
@@ -13708,7 +13708,7 @@
         <v>3.9344</v>
       </c>
       <c r="C1207" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1208">
@@ -13719,7 +13719,7 @@
         <v>7.865600000000001</v>
       </c>
       <c r="C1208" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1209">
@@ -14112,7 +14112,7 @@
         <v>1242</v>
       </c>
       <c r="B1244" t="n">
-        <v>8.9176</v>
+        <v>4.88</v>
       </c>
       <c r="C1244" t="n">
         <v>3437501</v>
@@ -14123,7 +14123,7 @@
         <v>1243</v>
       </c>
       <c r="B1245" t="n">
-        <v>0.3928</v>
+        <v>3.9624</v>
       </c>
       <c r="C1245" t="n">
         <v>3437501</v>
@@ -14134,7 +14134,7 @@
         <v>1244</v>
       </c>
       <c r="B1246" t="n">
-        <v>7.419200000000001</v>
+        <v>0.3928</v>
       </c>
       <c r="C1246" t="n">
         <v>3437501</v>
@@ -14145,7 +14145,7 @@
         <v>1245</v>
       </c>
       <c r="B1247" t="n">
-        <v>0.9144000000000001</v>
+        <v>7.419200000000001</v>
       </c>
       <c r="C1247" t="n">
         <v>3437501</v>
@@ -14156,7 +14156,7 @@
         <v>1246</v>
       </c>
       <c r="B1248" t="n">
-        <v>2.868</v>
+        <v>0.9144000000000001</v>
       </c>
       <c r="C1248" t="n">
         <v>3437501</v>
@@ -14167,7 +14167,7 @@
         <v>1247</v>
       </c>
       <c r="B1249" t="n">
-        <v>22.9176</v>
+        <v>25.8608</v>
       </c>
       <c r="C1249" t="n">
         <v>3437501</v>
@@ -15721,7 +15721,7 @@
         <v>0.7976</v>
       </c>
       <c r="C1390" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1391">
@@ -15732,7 +15732,7 @@
         <v>3.9504</v>
       </c>
       <c r="C1391" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1392">
@@ -15743,7 +15743,7 @@
         <v>1.2544</v>
       </c>
       <c r="C1392" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1393">
@@ -15754,7 +15754,7 @@
         <v>1.368</v>
       </c>
       <c r="C1393" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1394">
@@ -15765,7 +15765,7 @@
         <v>0.6936</v>
       </c>
       <c r="C1394" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1395">
@@ -15776,7 +15776,7 @@
         <v>2.4472</v>
       </c>
       <c r="C1395" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1396">
@@ -15787,7 +15787,7 @@
         <v>1.4264</v>
       </c>
       <c r="C1396" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1397">
@@ -15798,7 +15798,7 @@
         <v>3.1736</v>
       </c>
       <c r="C1397" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1398">
@@ -16081,7 +16081,7 @@
         <v>1421</v>
       </c>
       <c r="B1423" t="n">
-        <v>1.4248</v>
+        <v>1.424</v>
       </c>
       <c r="C1423" t="n">
         <v>4062501</v>
@@ -16103,7 +16103,7 @@
         <v>1423</v>
       </c>
       <c r="B1425" t="n">
-        <v>0.7032</v>
+        <v>0.704</v>
       </c>
       <c r="C1425" t="n">
         <v>4062501</v>
@@ -16513,7 +16513,7 @@
         <v>11.9496</v>
       </c>
       <c r="C1462" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1463">
@@ -16524,7 +16524,7 @@
         <v>0.384</v>
       </c>
       <c r="C1463" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1464">
@@ -16535,7 +16535,7 @@
         <v>2.416</v>
       </c>
       <c r="C1464" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1465">
@@ -16546,7 +16546,7 @@
         <v>1.4104</v>
       </c>
       <c r="C1465" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1466">
@@ -17063,7 +17063,7 @@
         <v>3.9336</v>
       </c>
       <c r="C1512" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1513">
@@ -17074,7 +17074,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C1513" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1514">
@@ -17467,7 +17467,7 @@
         <v>1547</v>
       </c>
       <c r="B1549" t="n">
-        <v>8.9176</v>
+        <v>4.8792</v>
       </c>
       <c r="C1549" t="n">
         <v>4687501</v>
@@ -17478,7 +17478,7 @@
         <v>1548</v>
       </c>
       <c r="B1550" t="n">
-        <v>0.3928</v>
+        <v>3.9632</v>
       </c>
       <c r="C1550" t="n">
         <v>4687501</v>
@@ -17489,7 +17489,7 @@
         <v>1549</v>
       </c>
       <c r="B1551" t="n">
-        <v>7.4184</v>
+        <v>0.3928</v>
       </c>
       <c r="C1551" t="n">
         <v>4687501</v>
@@ -17500,7 +17500,7 @@
         <v>1550</v>
       </c>
       <c r="B1552" t="n">
-        <v>0.9152</v>
+        <v>7.4184</v>
       </c>
       <c r="C1552" t="n">
         <v>4687501</v>
@@ -17511,7 +17511,7 @@
         <v>1551</v>
       </c>
       <c r="B1553" t="n">
-        <v>2.8672</v>
+        <v>0.9152</v>
       </c>
       <c r="C1553" t="n">
         <v>4687501</v>
@@ -17522,7 +17522,7 @@
         <v>1552</v>
       </c>
       <c r="B1554" t="n">
-        <v>22.9184</v>
+        <v>25.8608</v>
       </c>
       <c r="C1554" t="n">
         <v>4687501</v>
@@ -18875,7 +18875,7 @@
         <v>1675</v>
       </c>
       <c r="B1677" t="n">
-        <v>0.364</v>
+        <v>0.3648</v>
       </c>
       <c r="C1677" t="n">
         <v>5000001</v>
@@ -18886,7 +18886,7 @@
         <v>1676</v>
       </c>
       <c r="B1678" t="n">
-        <v>2.44</v>
+        <v>2.4392</v>
       </c>
       <c r="C1678" t="n">
         <v>5000001</v>
@@ -19087,7 +19087,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C1696" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1697">
@@ -19098,7 +19098,7 @@
         <v>3.9504</v>
       </c>
       <c r="C1697" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1698">
@@ -19109,7 +19109,7 @@
         <v>1.2544</v>
       </c>
       <c r="C1698" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1699">
@@ -19120,7 +19120,7 @@
         <v>1.368</v>
       </c>
       <c r="C1699" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1700">
@@ -19131,7 +19131,7 @@
         <v>0.6936</v>
       </c>
       <c r="C1700" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1701">
@@ -19142,7 +19142,7 @@
         <v>2.4464</v>
       </c>
       <c r="C1701" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1702">
@@ -19153,7 +19153,7 @@
         <v>1.428</v>
       </c>
       <c r="C1702" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1703">
@@ -19164,7 +19164,7 @@
         <v>3.1728</v>
       </c>
       <c r="C1703" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1704">
@@ -19879,7 +19879,7 @@
         <v>11.9496</v>
       </c>
       <c r="C1768" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1769">
@@ -19890,7 +19890,7 @@
         <v>0.3848</v>
       </c>
       <c r="C1769" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1770">
@@ -19901,7 +19901,7 @@
         <v>2.4152</v>
       </c>
       <c r="C1770" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1771">
@@ -19912,7 +19912,7 @@
         <v>1.4104</v>
       </c>
       <c r="C1771" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1772">
@@ -20429,7 +20429,7 @@
         <v>3.9336</v>
       </c>
       <c r="C1818" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1819">
@@ -20440,7 +20440,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C1819" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1820">
@@ -20833,7 +20833,7 @@
         <v>1853</v>
       </c>
       <c r="B1855" t="n">
-        <v>8.9176</v>
+        <v>4.878400000000001</v>
       </c>
       <c r="C1855" t="n">
         <v>5937501</v>
@@ -20844,7 +20844,7 @@
         <v>1854</v>
       </c>
       <c r="B1856" t="n">
-        <v>0.392</v>
+        <v>3.964</v>
       </c>
       <c r="C1856" t="n">
         <v>5937501</v>
@@ -20855,7 +20855,7 @@
         <v>1855</v>
       </c>
       <c r="B1857" t="n">
-        <v>7.4184</v>
+        <v>0.392</v>
       </c>
       <c r="C1857" t="n">
         <v>5937501</v>
@@ -20866,7 +20866,7 @@
         <v>1856</v>
       </c>
       <c r="B1858" t="n">
-        <v>0.916</v>
+        <v>7.4184</v>
       </c>
       <c r="C1858" t="n">
         <v>5937501</v>
@@ -20877,7 +20877,7 @@
         <v>1857</v>
       </c>
       <c r="B1859" t="n">
-        <v>2.8664</v>
+        <v>0.916</v>
       </c>
       <c r="C1859" t="n">
         <v>5937501</v>
@@ -20888,7 +20888,7 @@
         <v>1858</v>
       </c>
       <c r="B1860" t="n">
-        <v>22.9184</v>
+        <v>25.86</v>
       </c>
       <c r="C1860" t="n">
         <v>5937501</v>
@@ -22453,7 +22453,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C2002" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2003">
@@ -22464,7 +22464,7 @@
         <v>3.9504</v>
       </c>
       <c r="C2003" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2004">
@@ -22475,7 +22475,7 @@
         <v>1.2544</v>
       </c>
       <c r="C2004" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2005">
@@ -22486,7 +22486,7 @@
         <v>1.368</v>
       </c>
       <c r="C2005" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2006">
@@ -22497,7 +22497,7 @@
         <v>0.6936</v>
       </c>
       <c r="C2006" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2007">
@@ -22508,7 +22508,7 @@
         <v>2.4464</v>
       </c>
       <c r="C2007" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2008">
@@ -22519,7 +22519,7 @@
         <v>1.428</v>
       </c>
       <c r="C2008" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2009">
@@ -22530,7 +22530,7 @@
         <v>3.1728</v>
       </c>
       <c r="C2009" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2010">
@@ -23245,7 +23245,7 @@
         <v>11.9496</v>
       </c>
       <c r="C2074" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2075">
@@ -23256,7 +23256,7 @@
         <v>0.3848</v>
       </c>
       <c r="C2075" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2076">
@@ -23267,7 +23267,7 @@
         <v>2.4152</v>
       </c>
       <c r="C2076" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2077">
@@ -23278,7 +23278,7 @@
         <v>1.4104</v>
       </c>
       <c r="C2077" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2078">
@@ -23795,7 +23795,7 @@
         <v>3.9336</v>
       </c>
       <c r="C2124" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="2125">
@@ -23806,7 +23806,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C2125" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="2126">
@@ -24199,7 +24199,7 @@
         <v>2159</v>
       </c>
       <c r="B2161" t="n">
-        <v>8.9176</v>
+        <v>4.878400000000001</v>
       </c>
       <c r="C2161" t="n">
         <v>7187501</v>
@@ -24210,7 +24210,7 @@
         <v>2160</v>
       </c>
       <c r="B2162" t="n">
-        <v>0.392</v>
+        <v>3.964</v>
       </c>
       <c r="C2162" t="n">
         <v>7187501</v>
@@ -24221,7 +24221,7 @@
         <v>2161</v>
       </c>
       <c r="B2163" t="n">
-        <v>7.4184</v>
+        <v>0.392</v>
       </c>
       <c r="C2163" t="n">
         <v>7187501</v>
@@ -24232,7 +24232,7 @@
         <v>2162</v>
       </c>
       <c r="B2164" t="n">
-        <v>0.916</v>
+        <v>7.4184</v>
       </c>
       <c r="C2164" t="n">
         <v>7187501</v>
@@ -24243,7 +24243,7 @@
         <v>2163</v>
       </c>
       <c r="B2165" t="n">
-        <v>2.8664</v>
+        <v>0.916</v>
       </c>
       <c r="C2165" t="n">
         <v>7187501</v>
@@ -24254,7 +24254,7 @@
         <v>2164</v>
       </c>
       <c r="B2166" t="n">
-        <v>22.9184</v>
+        <v>25.86</v>
       </c>
       <c r="C2166" t="n">
         <v>7187501</v>
@@ -25819,7 +25819,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C2308" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2309">
@@ -25830,7 +25830,7 @@
         <v>3.9504</v>
       </c>
       <c r="C2309" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2310">
@@ -25841,7 +25841,7 @@
         <v>1.2544</v>
       </c>
       <c r="C2310" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2311">
@@ -25852,7 +25852,7 @@
         <v>1.368</v>
       </c>
       <c r="C2311" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2312">
@@ -25863,7 +25863,7 @@
         <v>0.6936</v>
       </c>
       <c r="C2312" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2313">
@@ -25874,7 +25874,7 @@
         <v>2.4464</v>
       </c>
       <c r="C2313" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2314">
@@ -25885,7 +25885,7 @@
         <v>1.428</v>
       </c>
       <c r="C2314" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2315">
@@ -25896,7 +25896,7 @@
         <v>3.1728</v>
       </c>
       <c r="C2315" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2316">
@@ -26611,7 +26611,7 @@
         <v>11.9496</v>
       </c>
       <c r="C2380" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2381">
@@ -26622,7 +26622,7 @@
         <v>0.3848</v>
       </c>
       <c r="C2381" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2382">
@@ -26633,7 +26633,7 @@
         <v>2.4152</v>
       </c>
       <c r="C2382" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2383">
@@ -26644,7 +26644,7 @@
         <v>1.4104</v>
       </c>
       <c r="C2383" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2384">
@@ -27161,7 +27161,7 @@
         <v>3.9336</v>
       </c>
       <c r="C2430" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2431">
@@ -27172,7 +27172,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C2431" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2432">
@@ -27565,7 +27565,7 @@
         <v>2465</v>
       </c>
       <c r="B2467" t="n">
-        <v>8.9176</v>
+        <v>4.8792</v>
       </c>
       <c r="C2467" t="n">
         <v>8437501</v>
@@ -27576,7 +27576,7 @@
         <v>2466</v>
       </c>
       <c r="B2468" t="n">
-        <v>0.3928</v>
+        <v>3.9632</v>
       </c>
       <c r="C2468" t="n">
         <v>8437501</v>
@@ -27587,7 +27587,7 @@
         <v>2467</v>
       </c>
       <c r="B2469" t="n">
-        <v>7.4184</v>
+        <v>0.3928</v>
       </c>
       <c r="C2469" t="n">
         <v>8437501</v>
@@ -27598,7 +27598,7 @@
         <v>2468</v>
       </c>
       <c r="B2470" t="n">
-        <v>0.9152</v>
+        <v>7.4184</v>
       </c>
       <c r="C2470" t="n">
         <v>8437501</v>
@@ -27609,7 +27609,7 @@
         <v>2469</v>
       </c>
       <c r="B2471" t="n">
-        <v>2.8672</v>
+        <v>0.9152</v>
       </c>
       <c r="C2471" t="n">
         <v>8437501</v>
@@ -27620,7 +27620,7 @@
         <v>2470</v>
       </c>
       <c r="B2472" t="n">
-        <v>22.9184</v>
+        <v>25.8608</v>
       </c>
       <c r="C2472" t="n">
         <v>8437501</v>
@@ -29185,7 +29185,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C2614" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2615">
@@ -29196,7 +29196,7 @@
         <v>3.9504</v>
       </c>
       <c r="C2615" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2616">
@@ -29207,7 +29207,7 @@
         <v>1.2544</v>
       </c>
       <c r="C2616" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2617">
@@ -29218,7 +29218,7 @@
         <v>1.368</v>
       </c>
       <c r="C2617" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2618">
@@ -29229,7 +29229,7 @@
         <v>0.6936</v>
       </c>
       <c r="C2618" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2619">
@@ -29240,7 +29240,7 @@
         <v>2.4464</v>
       </c>
       <c r="C2619" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2620">
@@ -29251,7 +29251,7 @@
         <v>1.4272</v>
       </c>
       <c r="C2620" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2621">
@@ -29262,7 +29262,7 @@
         <v>3.1736</v>
       </c>
       <c r="C2621" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2622">
@@ -29977,7 +29977,7 @@
         <v>11.9496</v>
       </c>
       <c r="C2686" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2687">
@@ -29988,7 +29988,7 @@
         <v>0.384</v>
       </c>
       <c r="C2687" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2688">
@@ -29999,7 +29999,7 @@
         <v>2.416</v>
       </c>
       <c r="C2688" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2689">
@@ -30010,7 +30010,7 @@
         <v>1.4104</v>
       </c>
       <c r="C2689" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2690">
@@ -30527,7 +30527,7 @@
         <v>3.9336</v>
       </c>
       <c r="C2736" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2737">
@@ -30538,7 +30538,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C2737" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2738">
@@ -30931,7 +30931,7 @@
         <v>2771</v>
       </c>
       <c r="B2773" t="n">
-        <v>8.9176</v>
+        <v>4.8792</v>
       </c>
       <c r="C2773" t="n">
         <v>9687501</v>
@@ -30942,7 +30942,7 @@
         <v>2772</v>
       </c>
       <c r="B2774" t="n">
-        <v>0.3928</v>
+        <v>3.9632</v>
       </c>
       <c r="C2774" t="n">
         <v>9687501</v>
@@ -30953,7 +30953,7 @@
         <v>2773</v>
       </c>
       <c r="B2775" t="n">
-        <v>7.4184</v>
+        <v>0.3928</v>
       </c>
       <c r="C2775" t="n">
         <v>9687501</v>
@@ -30964,7 +30964,7 @@
         <v>2774</v>
       </c>
       <c r="B2776" t="n">
-        <v>0.9152</v>
+        <v>7.4184</v>
       </c>
       <c r="C2776" t="n">
         <v>9687501</v>
@@ -30975,7 +30975,7 @@
         <v>2775</v>
       </c>
       <c r="B2777" t="n">
-        <v>2.8672</v>
+        <v>0.9152</v>
       </c>
       <c r="C2777" t="n">
         <v>9687501</v>
@@ -30986,7 +30986,7 @@
         <v>2776</v>
       </c>
       <c r="B2778" t="n">
-        <v>22.9184</v>
+        <v>25.8608</v>
       </c>
       <c r="C2778" t="n">
         <v>9687501</v>
@@ -32551,7 +32551,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C2920" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2921">
@@ -32562,7 +32562,7 @@
         <v>3.9504</v>
       </c>
       <c r="C2921" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2922">
@@ -32573,7 +32573,7 @@
         <v>1.2544</v>
       </c>
       <c r="C2922" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2923">
@@ -32584,7 +32584,7 @@
         <v>1.368</v>
       </c>
       <c r="C2923" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2924">
@@ -32595,7 +32595,7 @@
         <v>0.6936</v>
       </c>
       <c r="C2924" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2925">
@@ -32606,7 +32606,7 @@
         <v>2.4464</v>
       </c>
       <c r="C2925" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2926">
@@ -32617,7 +32617,7 @@
         <v>1.4272</v>
       </c>
       <c r="C2926" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2927">
@@ -32628,7 +32628,7 @@
         <v>3.1736</v>
       </c>
       <c r="C2927" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2928">
@@ -33343,7 +33343,7 @@
         <v>11.9496</v>
       </c>
       <c r="C2992" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2993">
@@ -33354,7 +33354,7 @@
         <v>0.384</v>
       </c>
       <c r="C2993" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2994">
@@ -33365,7 +33365,7 @@
         <v>2.416</v>
       </c>
       <c r="C2994" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2995">
@@ -33376,7 +33376,7 @@
         <v>1.4104</v>
       </c>
       <c r="C2995" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2996">
@@ -33893,7 +33893,7 @@
         <v>3.9336</v>
       </c>
       <c r="C3042" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="3043">
@@ -33904,7 +33904,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C3043" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="3044">
@@ -34297,7 +34297,7 @@
         <v>3077</v>
       </c>
       <c r="B3079" t="n">
-        <v>8.9176</v>
+        <v>4.8792</v>
       </c>
       <c r="C3079" t="n">
         <v>10937501</v>
@@ -34308,7 +34308,7 @@
         <v>3078</v>
       </c>
       <c r="B3080" t="n">
-        <v>0.3928</v>
+        <v>3.9632</v>
       </c>
       <c r="C3080" t="n">
         <v>10937501</v>
@@ -34319,7 +34319,7 @@
         <v>3079</v>
       </c>
       <c r="B3081" t="n">
-        <v>7.4184</v>
+        <v>0.3928</v>
       </c>
       <c r="C3081" t="n">
         <v>10937501</v>
@@ -34330,7 +34330,7 @@
         <v>3080</v>
       </c>
       <c r="B3082" t="n">
-        <v>0.9152</v>
+        <v>7.4184</v>
       </c>
       <c r="C3082" t="n">
         <v>10937501</v>
@@ -34341,7 +34341,7 @@
         <v>3081</v>
       </c>
       <c r="B3083" t="n">
-        <v>2.8672</v>
+        <v>0.9152</v>
       </c>
       <c r="C3083" t="n">
         <v>10937501</v>
@@ -34352,7 +34352,7 @@
         <v>3082</v>
       </c>
       <c r="B3084" t="n">
-        <v>22.9184</v>
+        <v>25.8608</v>
       </c>
       <c r="C3084" t="n">
         <v>10937501</v>
@@ -35917,7 +35917,7 @@
         <v>0.7984000000000001</v>
       </c>
       <c r="C3226" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3227">
@@ -35928,7 +35928,7 @@
         <v>3.9504</v>
       </c>
       <c r="C3227" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3228">
@@ -35939,7 +35939,7 @@
         <v>1.2544</v>
       </c>
       <c r="C3228" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3229">
@@ -35950,7 +35950,7 @@
         <v>1.368</v>
       </c>
       <c r="C3229" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3230">
@@ -35961,7 +35961,7 @@
         <v>0.6936</v>
       </c>
       <c r="C3230" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3231">
@@ -35972,7 +35972,7 @@
         <v>2.4464</v>
       </c>
       <c r="C3231" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3232">
@@ -35983,7 +35983,7 @@
         <v>1.4272</v>
       </c>
       <c r="C3232" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3233">
@@ -35994,7 +35994,7 @@
         <v>3.1736</v>
       </c>
       <c r="C3233" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3234">
@@ -36709,7 +36709,7 @@
         <v>11.9496</v>
       </c>
       <c r="C3298" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3299">
@@ -36720,7 +36720,7 @@
         <v>0.384</v>
       </c>
       <c r="C3299" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3300">
@@ -36731,7 +36731,7 @@
         <v>2.416</v>
       </c>
       <c r="C3300" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3301">
@@ -36742,7 +36742,7 @@
         <v>1.4104</v>
       </c>
       <c r="C3301" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3302">
@@ -37259,7 +37259,7 @@
         <v>3.9336</v>
       </c>
       <c r="C3348" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="3349">
@@ -37270,7 +37270,7 @@
         <v>7.866400000000001</v>
       </c>
       <c r="C3349" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="3350">
@@ -37597,7 +37597,7 @@
         <v>3377</v>
       </c>
       <c r="B3379" t="n">
-        <v>7.895200000000001</v>
+        <v>3.932</v>
       </c>
       <c r="C3379" t="n">
         <v>12187501</v>
@@ -37608,7 +37608,7 @@
         <v>3378</v>
       </c>
       <c r="B3380" t="n">
-        <v>7.856</v>
+        <v>3.8688</v>
       </c>
       <c r="C3380" t="n">
         <v>12187501</v>
@@ -37619,7 +37619,7 @@
         <v>3379</v>
       </c>
       <c r="B3381" t="n">
-        <v>8.907200000000001</v>
+        <v>7.856</v>
       </c>
       <c r="C3381" t="n">
         <v>12187501</v>
@@ -37630,7 +37630,7 @@
         <v>3380</v>
       </c>
       <c r="B3382" t="n">
-        <v>0.952</v>
+        <v>7.9488</v>
       </c>
       <c r="C3382" t="n">
         <v>12187501</v>
@@ -37641,7 +37641,7 @@
         <v>3381</v>
       </c>
       <c r="B3383" t="n">
-        <v>6.9232</v>
+        <v>0.864</v>
       </c>
       <c r="C3383" t="n">
         <v>12187501</v>
@@ -37652,7 +37652,7 @@
         <v>3382</v>
       </c>
       <c r="B3384" t="n">
-        <v>1.8256</v>
+        <v>0.9552</v>
       </c>
       <c r="C3384" t="n">
         <v>12187501</v>
@@ -37663,7 +37663,7 @@
         <v>3383</v>
       </c>
       <c r="B3385" t="n">
-        <v>8.9176</v>
+        <v>6.832</v>
       </c>
       <c r="C3385" t="n">
         <v>12187501</v>
@@ -37674,7 +37674,7 @@
         <v>3384</v>
       </c>
       <c r="B3386" t="n">
-        <v>0.3928</v>
+        <v>1.7344</v>
       </c>
       <c r="C3386" t="n">
         <v>12187501</v>
@@ -37685,7 +37685,7 @@
         <v>3385</v>
       </c>
       <c r="B3387" t="n">
-        <v>7.4184</v>
+        <v>4.8792</v>
       </c>
       <c r="C3387" t="n">
         <v>12187501</v>
@@ -37696,31 +37696,9 @@
         <v>3386</v>
       </c>
       <c r="B3388" t="n">
-        <v>0.9152</v>
+        <v>18.7744</v>
       </c>
       <c r="C3388" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="3389">
-      <c r="A3389" s="1" t="n">
-        <v>3387</v>
-      </c>
-      <c r="B3389" t="n">
-        <v>2.8672</v>
-      </c>
-      <c r="C3389" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="3390">
-      <c r="A3390" s="1" t="n">
-        <v>3388</v>
-      </c>
-      <c r="B3390" t="n">
-        <v>18.7744</v>
-      </c>
-      <c r="C3390" t="n">
         <v>12187501</v>
       </c>
     </row>
